--- a/eval/results/final_result.xlsx
+++ b/eval/results/final_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Code\link-shortener\eval\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE337FE-E722-4E5B-AF2D-9181FB466646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4D467-AEC2-4A12-B995-ABDE184636BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Tools</t>
   </si>
@@ -67,12 +67,6 @@
     <t>CREATE ONLY</t>
   </si>
   <si>
-    <t>With Rate Limiting</t>
-  </si>
-  <si>
-    <t>With Rate Limiting and Cache</t>
-  </si>
-  <si>
     <t>LATENCY (ms)</t>
   </si>
   <si>
@@ -92,6 +86,15 @@
   </si>
   <si>
     <t>No Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rate Limiting Only</t>
+  </si>
+  <si>
+    <t>Rate Limiting + Cache</t>
   </si>
 </sst>
 </file>
@@ -122,6 +125,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -137,7 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -169,14 +173,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -189,6 +187,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,353 +454,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" style="3"/>
-    <col min="6" max="6" width="48" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="1"/>
+    <col min="6" max="6" width="48" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B13" s="4">
+        <v>16.53</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="4">
+        <v>426.38</v>
+      </c>
+      <c r="C14" s="4">
+        <v>467.85</v>
+      </c>
+      <c r="D14" s="1">
+        <v>464.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
-        <v>16.53</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6.13</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="4">
+        <v>176.44</v>
+      </c>
+      <c r="C15" s="4">
+        <v>134.58000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>156.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
-        <v>426.38</v>
-      </c>
-      <c r="C14" s="6">
-        <v>467.85</v>
-      </c>
-      <c r="D14" s="3">
-        <v>464.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="B16" s="4">
+        <v>1199.06</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1022.85</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1010.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
-        <v>176.44</v>
-      </c>
-      <c r="C15" s="6">
-        <v>134.58000000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>156.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>463.34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>480.89</v>
+      </c>
+      <c r="D23" s="1">
+        <v>487.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
+        <v>193.03</v>
+      </c>
+      <c r="C24" s="4">
+        <v>96.72</v>
+      </c>
+      <c r="D24" s="1">
+        <v>89.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1387.68</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1385.08</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1175.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
-        <v>1199.06</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1022.85</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1010.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="B31" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="B32" s="4">
+        <v>463.18</v>
+      </c>
+      <c r="C32" s="4">
+        <v>480.15</v>
+      </c>
+      <c r="D32" s="1">
+        <v>479.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6">
-        <v>7.13</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3.28</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="B33" s="4">
+        <v>160.41999999999999</v>
+      </c>
+      <c r="C33" s="4">
+        <v>69.91</v>
+      </c>
+      <c r="D33" s="1">
+        <v>109.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="6">
-        <v>463.34</v>
-      </c>
-      <c r="C23" s="6">
-        <v>480.89</v>
-      </c>
-      <c r="D23" s="3">
-        <v>487.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="6">
-        <v>193.03</v>
-      </c>
-      <c r="C24" s="6">
-        <v>96.72</v>
-      </c>
-      <c r="D24" s="3">
-        <v>89.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1387.68</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1385.08</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1175.96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="6">
-        <v>7.47</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3.43</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6">
-        <v>463.18</v>
-      </c>
-      <c r="C32" s="6">
-        <v>480.15</v>
-      </c>
-      <c r="D32" s="3">
-        <v>479.54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="6">
-        <v>160.41999999999999</v>
-      </c>
-      <c r="C33" s="6">
-        <v>69.91</v>
-      </c>
-      <c r="D33" s="3">
-        <v>109.56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>1562.45</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1428.7</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1254.56</v>
       </c>
     </row>
@@ -810,359 +811,362 @@
     <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.6328125" style="3"/>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>500</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B13" s="4">
+        <v>562.04999999999995</v>
+      </c>
+      <c r="C13" s="4">
+        <v>189.04</v>
+      </c>
+      <c r="D13" s="1">
+        <v>172.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="4">
+        <v>751.96</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1724.57</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1822.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
-        <v>562.04999999999995</v>
-      </c>
-      <c r="C13" s="6">
-        <v>189.04</v>
-      </c>
-      <c r="D13" s="3">
-        <v>172.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="4">
+        <v>336.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>169.06</v>
+      </c>
+      <c r="D15" s="1">
+        <v>195.85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
-        <v>751.96</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1724.57</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1822.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="B16" s="4">
+        <v>1329.87</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1145.9000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1273.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
-        <v>336.5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>169.06</v>
-      </c>
-      <c r="D15" s="3">
-        <v>195.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
+        <v>392.05</v>
+      </c>
+      <c r="C22" s="4">
+        <v>200.13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1011.93</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1657.65</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1961.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
+        <v>370.89</v>
+      </c>
+      <c r="C24" s="4">
+        <v>181.04</v>
+      </c>
+      <c r="D24" s="1">
+        <v>69.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1565.59</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1450.55</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1579.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
-        <v>1329.87</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1145.9000000000001</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1273.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="B31" s="4">
+        <v>445.6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>184.96</v>
+      </c>
+      <c r="D31" s="1">
+        <v>144.36000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="B32" s="4">
+        <v>912.23</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1746.55</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1977.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6">
-        <v>392.05</v>
-      </c>
-      <c r="C22" s="6">
-        <v>200.13</v>
-      </c>
-      <c r="D22" s="3">
-        <v>154.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="B33" s="4">
+        <v>295.64999999999998</v>
+      </c>
+      <c r="C33" s="4">
+        <v>87.09</v>
+      </c>
+      <c r="D33" s="1">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="6">
-        <v>1011.93</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1657.65</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1961.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="6">
-        <v>370.89</v>
-      </c>
-      <c r="C24" s="6">
-        <v>181.04</v>
-      </c>
-      <c r="D24" s="3">
-        <v>69.34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1565.59</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1450.55</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1579.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="6">
-        <v>445.6</v>
-      </c>
-      <c r="C31" s="6">
-        <v>184.96</v>
-      </c>
-      <c r="D31" s="3">
-        <v>144.36000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6">
-        <v>912.23</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1746.55</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1977.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="6">
-        <v>295.64999999999998</v>
-      </c>
-      <c r="C33" s="6">
-        <v>87.09</v>
-      </c>
-      <c r="D33" s="3">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>1637.92</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1585.69</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1640.57</v>
       </c>
     </row>
